--- a/data/eindhoven_mapping.xlsx
+++ b/data/eindhoven_mapping.xlsx
@@ -4044,12 +4044,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -4083,39 +4090,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4198,8 +4205,8 @@
   </sheetPr>
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4208,12 +4215,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="127.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
@@ -4758,7 +4765,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>129</v>
       </c>
@@ -4880,7 +4887,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
         <v>157</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
         <v>170</v>
       </c>
@@ -4991,7 +4998,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
         <v>184</v>
       </c>
@@ -5011,7 +5018,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
         <v>189</v>
       </c>
@@ -7954,7 +7961,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/eindhoven_mapping.xlsx
+++ b/data/eindhoven_mapping.xlsx
@@ -756,24 +756,440 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">ADJ(vrij,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,basis,met-e)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese  dramatische  erge  verschrikkelijke  absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw adverbiaal overige buiging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADJ(vrij,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,comp,zonder)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">luider  sneller  zwaarder  aandachtiger  indrukwekkender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw adverbiaal comparatief onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADJ(vrij,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,sup,zonder)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Allereerst  sterkst  vroegst  eerst  meest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw adverbiaal superlatief onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADJ(vrij,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,sup,met-e)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sterkste  langste  strengste  leukste  duidelijkste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw adverbiaal superlatief overige buiging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zijn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw comparatief onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">ADJ(</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vrij,</t>
-    </r>
-    <r>
-      <rPr>
         <u val="single"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">interj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,basis,zonder)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">goed  waar  werkelijk  mooi  Mooi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw interjectivisch basisvorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(inf,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,vrij)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">kassie-kijken  bijten  stampen  koken  dopen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans infinitief,verbaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eindh annoteert trans/intrans/refl/hulpkoppel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(inf,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,nom)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">aanzien  janken  optreden  kapseizen  dwarrelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans infinitief, nominaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,prenom|vrij,zonder)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">uitdovend  autorijdend  overtuigend  moordend  studerend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans od, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,prenom,met-e,zonder-n)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">jagende  vervlakkende  klonterende  dodende  huilende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans od, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!Alle voorkomens lijken prenominaal te zijn, hoewel dat uit de beschrijving niet per se blijkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,nom,met-e,mv-n)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">scheidenden  belangstellenden  wachtenden  vooruitstrevenden  werkenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans od, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">adv</t>
     </r>
     <r>
@@ -783,35 +1199,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,basis,met-e)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese  dramatische  erge  verschrikkelijke  absolute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw adverbiaal overige buiging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ADJ(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vrij,</t>
+      <t xml:space="preserve">,vrij)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">verflauwende  Samenvattend  Uitgaande  schrijvend  peinzend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans od, bijwoordelijk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Misschien liever </t>
     </r>
     <r>
       <rPr>
@@ -830,35 +1235,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,comp,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">luider  sneller  zwaarder  aandachtiger  indrukwekkender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw adverbiaal comparatief onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ADJ(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vrij,</t>
+      <t xml:space="preserve"> noemen</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
     </r>
     <r>
       <rPr>
@@ -868,6 +1259,148 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,prenom|vrij,zonder)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gepraat  gegleden  verdronken  gefungeerd  opgestaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corpusvoorbeelden zowel attributief als in samengestelde werkwoordstijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,prenom|nom,met-e,zonder-n)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gebeurde  gewijzigde  geavanceerde  verdorde  verminderde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niet-attributief gebruik is zeldzaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,nom,met-e,mv-n)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">vergrijsden  geemigreerden  verongelukten  gevorderden  uitgetredenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">intrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">adv</t>
     </r>
     <r>
@@ -877,35 +1410,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,sup,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Allereerst  sterkst  vroegst  eerst  meest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw adverbiaal superlatief onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ADJ(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vrij,</t>
+      <t xml:space="preserve">,vrij)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">veronachtzaamd  Geschrokken  beschouwd  verantwoord  onderuitgezakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, bijwoordelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(inf,</t>
     </r>
     <r>
       <rPr>
@@ -915,6 +1440,220 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,vrij)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wensen  bespotten  beschuldigen  horen  benemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans infinitief,verbaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(inf,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,nom)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">stelen  vrijwaren  delen  creëren  opheffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans infinitief, nominaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,zonder)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bezittend  samendvattend  trekkend  houdend  overspannend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,met-e,zonder-n)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">serverende  roepende  opleverende  inhoudende  verbrassende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,met-e,mv-n) ??? [vb kloppen niet]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">maken  menen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(od,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">adv</t>
     </r>
     <r>
@@ -924,36 +1663,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,sup,met-e)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">sterkste  langste  strengste  leukste  duidelijkste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw adverbiaal superlatief overige buiging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zijn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw comparatief onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ADJ(</t>
+      <t xml:space="preserve">,vrij)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">puttend  ontnemend  verzwelgend  betreffende  taxerend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, bijwoordelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
     </r>
     <r>
       <rPr>
@@ -963,36 +1693,36 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">interj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,basis,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">goed  waar  werkelijk  mooi  Mooi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw interjectivisch basisvorm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(inf,</t>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,prenom|vrij,zonder)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bedekt  overreden  gekozen  neergeschreven  gekaapt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans vd, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
     </r>
     <r>
       <rPr>
@@ -1002,7 +1732,104 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">intrans</t>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,prenom|nom,met-e,zonder-n)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">opgedane  beknelde  geforceerde  geharde  verminderde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans vd, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,met-e,mv-n)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gestoorden  geraakten  verzekerden  veroordeelden  afgevaardigden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans vd, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WW(vd,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">adv</t>
     </r>
     <r>
       <rPr>
@@ -1012,873 +1839,6 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">kassie-kijken  bijten  stampen  koken  dopen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans infinitief,verbaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eindh annoteert trans/intrans/refl/hulpkoppel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(inf,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,nom)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">aanzien  janken  optreden  kapseizen  dwarrelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans infinitief, nominaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|vrij,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">uitdovend  autorijdend  overtuigend  moordend  studerend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans od, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom,met-e,zonder-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">jagende  vervlakkende  klonterende  dodende  huilende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans od, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle voorkomens lijken prenominaal te zijn, hoewel dat uit de beschrijving niet per se blijkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,nom,met-e,mv-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">scheidenden  belangstellenden  wachtenden  vooruitstrevenden  werkenden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans od, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">verflauwende  Samenvattend  Uitgaande  schrijvend  peinzend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans od, bijwoordelijk</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Misschien liever </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> noemen</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">206</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|vrij,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gepraat  gegleden  verdronken  gefungeerd  opgestaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpusvoorbeelden zowel attributief als in samengestelde werkwoordstijden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|nom,met-e,zonder-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gebeurde  gewijzigde  geavanceerde  verdorde  verminderde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niet-attributief gebruik is zeldzaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,nom,met-e,mv-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">vergrijsden  geemigreerden  verongelukten  gevorderden  uitgetredenen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">veronachtzaamd  Geschrokken  beschouwd  verantwoord  onderuitgezakt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, bijwoordelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(inf,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">wensen  bespotten  beschuldigen  horen  benemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans infinitief,verbaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(inf,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,nom)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">stelen  vrijwaren  delen  creëren  opheffen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans infinitief, nominaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">bezittend  samendvattend  trekkend  houdend  overspannend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,met-e,zonder-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">serverende  roepende  opleverende  inhoudende  verbrassende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,met-e,mv-n) ??? [vb kloppen niet]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">maken  menen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">puttend  ontnemend  verzwelgend  betreffende  taxerend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, bijwoordelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|vrij,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">bedekt  overreden  gekozen  neergeschreven  gekaapt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans vd, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|nom,met-e,zonder-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">opgedane  beknelde  geforceerde  geharde  verminderde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans vd, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,met-e,mv-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gestoorden  geraakten  verzekerden  veroordeelden  afgevaardigden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans vd, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">vrij)</t>
     </r>
   </si>
   <si>
@@ -4371,7 +4331,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4426,11 +4386,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4608,8 +4563,8 @@
   </sheetPr>
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5341,7 +5296,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
         <v>169</v>
       </c>
@@ -8358,7 +8313,7 @@
   </sheetPr>
   <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C212" activeCellId="0" sqref="C212"/>
     </sheetView>
   </sheetViews>

--- a/data/eindhoven_mapping.xlsx
+++ b/data/eindhoven_mapping.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1010">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -51,7 +51,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N(soort,ev,</t>
+      <t xml:space="preserve">N(soort,ev,e-</t>
     </r>
     <r>
       <rPr>
@@ -93,7 +93,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N(soort,mv,</t>
+      <t xml:space="preserve">N(soort,mv,e-</t>
     </r>
     <r>
       <rPr>
@@ -132,7 +132,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N(soort,ev,gen,</t>
+      <t xml:space="preserve">N(soort,ev,gen,e-</t>
     </r>
     <r>
       <rPr>
@@ -171,7 +171,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N(soort,ev,dat,</t>
+      <t xml:space="preserve">N(soort,ev,dat,e-</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +261,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N(soort,ev,</t>
+      <t xml:space="preserve">N(soort,ev,e-</t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N(soort,mv,</t>
+      <t xml:space="preserve">N(soort,mv,e-</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +348,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">N(soort,ev,</t>
+      <t xml:space="preserve">N(soort,ev,e-</t>
     </r>
     <r>
       <rPr>
@@ -714,7 +714,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ADJ(vrij,</t>
+      <t xml:space="preserve">ADJ(vrij,e-</t>
     </r>
     <r>
       <rPr>
@@ -756,7 +756,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ADJ(vrij,</t>
+      <t xml:space="preserve">ADJ(vrij,e-</t>
     </r>
     <r>
       <rPr>
@@ -795,7 +795,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ADJ(vrij,</t>
+      <t xml:space="preserve">ADJ(vrij,e-</t>
     </r>
     <r>
       <rPr>
@@ -834,7 +834,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ADJ(vrij,</t>
+      <t xml:space="preserve">ADJ(vrij,e-</t>
     </r>
     <r>
       <rPr>
@@ -873,7 +873,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ADJ(vrij,</t>
+      <t xml:space="preserve">ADJ(vrij,e-</t>
     </r>
     <r>
       <rPr>
@@ -921,7 +921,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ADJ(</t>
+      <t xml:space="preserve">ADJ(e-</t>
     </r>
     <r>
       <rPr>
@@ -960,7 +960,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WW(inf,</t>
+      <t xml:space="preserve">WW(inf,e-</t>
     </r>
     <r>
       <rPr>
@@ -1002,7 +1002,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WW(inf,</t>
+      <t xml:space="preserve">WW(inf,e-</t>
     </r>
     <r>
       <rPr>
@@ -1041,7 +1041,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WW(od,</t>
+      <t xml:space="preserve">WW(od,e-</t>
     </r>
     <r>
       <rPr>
@@ -1073,34 +1073,7 @@
     <t xml:space="preserve">203</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom,met-e,zonder-n)</t>
-    </r>
+    <t xml:space="preserve">WW(od,e-intrans,prenom,met-e,zonder-n)</t>
   </si>
   <si>
     <t xml:space="preserve">jagende  vervlakkende  klonterende  dodende  huilende</t>
@@ -1115,34 +1088,7 @@
     <t xml:space="preserve">204</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,nom,met-e,mv-n)</t>
-    </r>
+    <t xml:space="preserve">WW(od,e-intrans,nom,met-e,mv-n)</t>
   </si>
   <si>
     <t xml:space="preserve">scheidenden  belangstellenden  wachtenden  vooruitstrevenden  werkenden</t>
@@ -1154,53 +1100,7 @@
     <t xml:space="preserve">205</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
+    <t xml:space="preserve">WW(od,e-intrans,adv,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">verflauwende  Samenvattend  Uitgaande  schrijvend  peinzend</t>
@@ -1242,6 +1142,240 @@
     <t xml:space="preserve">206</t>
   </si>
   <si>
+    <t xml:space="preserve">WW(vd,e-intrans,prenom|vrij,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gepraat  gegleden  verdronken  gefungeerd  opgestaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corpusvoorbeelden zowel attributief als in samengestelde werkwoordstijden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-intrans,prenom|nom,met-e,zonder-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebeurde  gewijzigde  geavanceerde  verdorde  verminderde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niet-attributief gebruik is zeldzaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-intrans,nom,met-e,mv-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vergrijsden  geemigreerden  verongelukten  gevorderden  uitgetredenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-intrans,adv,vrij)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veronachtzaamd  Geschrokken  beschouwd  verantwoord  onderuitgezakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww intrans vd, bijwoordelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,e-trans,vrij)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wensen  bespotten  beschuldigen  horen  benemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans infinitief,verbaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,e-trans,nom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stelen  vrijwaren  delen  creëren  opheffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans infinitief, nominaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-trans,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezittend  samendvattend  trekkend  houdend  overspannend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-trans,met-e,zonder-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serverende  roepende  opleverende  inhoudende  verbrassende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-trans,met-e,mv-n) ??? [vb kloppen niet]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maken  menen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-trans,adv,vrij)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puttend  ontnemend  verzwelgend  betreffende  taxerend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans od, bijwoordelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-trans,prenom|vrij,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedekt  overreden  gekozen  neergeschreven  gekaapt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans vd, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-trans,prenom|nom,met-e,zonder-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opgedane  beknelde  geforceerde  geharde  verminderde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans vd, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-trans,met-e,mv-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestoorden  geraakten  verzekerden  veroordeelden  afgevaardigden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans vd, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-trans,adv,vrij)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geanimeerd  overdonderd  gekruist  beperkt  Lamgeslagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww trans vd, bijwoordelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,e-refl,verbaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bemoeien  handhaven  werken  verbinden  voorbereiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww refl infinitief,verbaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,e-refl,nominaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openstellen  overgeven  verenigen  voordoen  houden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww refl infinitief, nominaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-refl,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontstekend  bevindend  wijzigend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww refl od, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-refl,met-e,zonder-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respecterende  wijzigende  ontwikkelende  misdragende  verkeerende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww refl od, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-refl,met-e,mv-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww refl od, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1249,149 +1383,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|vrij,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gepraat  gegleden  verdronken  gefungeerd  opgestaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpusvoorbeelden zowel attributief als in samengestelde werkwoordstijden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|nom,met-e,zonder-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gebeurde  gewijzigde  geavanceerde  verdorde  verminderde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niet-attributief gebruik is zeldzaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,nom,met-e,mv-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">vergrijsden  geemigreerden  verongelukten  gevorderden  uitgetredenen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">intrans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
+      <t xml:space="preserve">WW(od,e-refl,</t>
     </r>
     <r>
       <rPr>
@@ -1414,13 +1406,577 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">veronachtzaamd  Geschrokken  beschouwd  verantwoord  onderuitgezakt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww intrans vd, bijwoordelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210</t>
+    <t xml:space="preserve">omkerend  aansluitend  baserend  verbazend  aansluitende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww refl od, bijwoordelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-refl,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opgewerkt  beschouwd  gesneden  verbonden  opgehouden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww refl vd, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,e-hulp-of-koppel,verbaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raken  lezen  staan  proberen  moeten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord infinitief,verbaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,e-hulp-of-koppel,nominaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worden  blijven  zijn  houden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord infinitief, nominaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-hulp-of-koppel,prenom|vrij,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wordend  lijkend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord od, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-hulp-of-koppel,met-e,zonder-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wordende  zijnde  luidende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord od, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-hulp-of-koppel,met-e,mv-n) ?? []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moeten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord od, meervoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,e-hulp-of-koppel,adv,vrij)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zijnde  wordend  trachtend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord od, bijwoordelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-hulp-of-koppel,prenom|vrij,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geheten  geprobeerd  geworden  gekomen  getracht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord vd, onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,e-hulp-of-koppel,met-e,zonder-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geraakte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww hulp of koppelwerkwoord vd, verbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,??) zou niet moeten bestaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stoppen  uitkomen  opgeven  steken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kijk  staan  zing  snap  sla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans 1 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moet  leef  Rook  gelooft  vervalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans 2 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groeit  zet  Rijst  kuurt  dient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans 3 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met-t kan eventueel scriptgewijs worden toegekend bij 2e en 3e persoon; niet als stam op -t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luisteren  willen  zitten  bloeden  bestaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans mv tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,verl,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glansde  publiceerde  school  fungeerde  dook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans sg verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,verl,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omgingen  trouwden  dansten  stieten  weigerden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans pl verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,imper,zonder-subj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dans  Doe  komt  kijk  let</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans imperatief zonder pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,imper,met-subj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snuiten  Lacht  Zorgt  komt  Zorg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans imperatief met pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-intrans,conj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zij  inslape  Leve  diene  overdrijve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, intrans overige vormen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans .. XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbeeld  vertellen  melken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merk  benijd  haat  Zie  besef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans 1 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ziet  aanhebt  leert  kun  meent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans 2 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betast  spuwt  afzondert  bejegent  afblaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans 3 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verzaken  uithalen  aanbieden  maken  opslokken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans mv tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,verl,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aanhief  beschuldigde  verwachtte  duwde  stemde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans sg verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,verl,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hielden  voelden  grepen  zochten  vroegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans pl verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,imper,zonderpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schep  steun  Open  Help  Krijg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans imperatief zonder pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,imper,metpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behandelt  Excuseert  Begint  zie  geeft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans imperatief met pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-trans,conj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">controlere  raadplege  koste  scheide  behoede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, trans overige vormen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herinner  zet  beroep  maak  vergis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl 1 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bemoei  inlaat  voel  houdt  verkleedt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl 2 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">over-vrijt  strekt  bevindt  handhaaft  loswoelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl 3 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiten  hoeden  stoten  bezighouden  beperken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl mv tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,verl,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">splitste  schrok  afgaf  redde  afspeelde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl sg verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,verl,mv) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bemoeiden  voelden  stelden  verlieten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl pl verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,imper,e-zonderpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beweeg  wacht  Verzet  vergis  vergist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl imperatief zonder pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-refl,imper,e-metpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, refl imperatief met pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord </t>
+  </si>
+  <si>
+    <t xml:space="preserve">271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEB  zal  zit  laat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord 1 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag  houdt  Weet  Zul  Kunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord 2 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag  zijn  kon  tracht  dient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord 3 ev tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magge  doen  Zijn  behoren  Blijken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord mv tgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,verl,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achtte  Liet  hielp  Was  Moest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord sg verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,verl,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zouden  HADDEN  sloegen  moesten  probeerden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord pl verl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,imper,zonderpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blijf  Blijf  Laat  Ga  zit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord imperatief zonder pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,imper,metpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begint  gaat  Gaat  Laat  Ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord imperatief met pronomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,conj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zij  ware  zijt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord overige vormen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287</t>
   </si>
   <si>
     <r>
@@ -1430,1125 +1986,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WW(inf,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">wensen  bespotten  beschuldigen  horen  benemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans infinitief,verbaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(inf,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,nom)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">stelen  vrijwaren  delen  creëren  opheffen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans infinitief, nominaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">bezittend  samendvattend  trekkend  houdend  overspannend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,met-e,zonder-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">serverende  roepende  opleverende  inhoudende  verbrassende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,met-e,mv-n) ??? [vb kloppen niet]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">maken  menen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">puttend  ontnemend  verzwelgend  betreffende  taxerend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans od, bijwoordelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|vrij,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">bedekt  overreden  gekozen  neergeschreven  gekaapt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans vd, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,prenom|nom,met-e,zonder-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">opgedane  beknelde  geforceerde  geharde  verminderde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans vd, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,met-e,mv-n)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">gestoorden  geraakten  verzekerden  veroordeelden  afgevaardigden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans vd, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(vd,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">geanimeerd  overdonderd  gekruist  beperkt  Lamgeslagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww trans vd, bijwoordelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(inf,refl,verbaal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bemoeien  handhaven  werken  verbinden  voorbereiden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww refl infinitief,verbaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(inf,refl,nominaal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openstellen  overgeven  verenigen  voordoen  houden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww refl infinitief, nominaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(od,refl,zonder)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ontstekend  bevindend  wijzigend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww refl od, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(od,refl,met-e,zonder-n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respecterende  wijzigende  ontwikkelende  misdragende  verkeerende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww refl od, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(od,refl,met-e,mv-n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww refl od, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,refl,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">omkerend  aansluitend  baserend  verbazend  aansluitende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww refl od, bijwoordelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(vd,refl,zonder)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opgewerkt  beschouwd  gesneden  verbonden  opgehouden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww refl vd, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(inf,hulp-of-koppel,verbaal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raken  lezen  staan  proberen  moeten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord infinitief,verbaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(inf,hulp-of-koppel,nominaal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worden  blijven  zijn  houden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord infinitief, nominaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(od,hulp-of-koppel,prenom|vrij,zonder)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wordend  lijkend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord od, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(od,hulp-of-koppel,met-e,zonder-n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wordende  zijnde  luidende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord od, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(od,hulp-of-koppel,met-e,mv-n) ?? []</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moeten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord od, meervoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(od,hulp-of-koppel,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,vrij)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">zijnde  wordend  trachtend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord od, bijwoordelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(vd,hulp-of-koppel,prenom|vrij,zonder)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geheten  geprobeerd  geworden  gekomen  getracht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord vd, onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(vd,hulp-of-koppel,met-e,zonder-n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geraakte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww hulp of koppelwerkwoord vd, verbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,??) zou niet moeten bestaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stoppen  uitkomen  opgeven  steken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans </t>
-  </si>
-  <si>
-    <t xml:space="preserve">241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,tgw,1,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kijk  staan  zing  snap  sla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans 1 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,tgw,2,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moet  leef  Rook  gelooft  vervalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans 2 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,tgw,3,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">groeit  zet  Rijst  kuurt  dient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans 3 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Met-t kan eventueel scriptgewijs worden toegekend bij 2e en 3e persoon; niet als stam op -t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,tgw,mv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luisteren  willen  zitten  bloeden  bestaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans mv tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,verl,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glansde  publiceerde  school  fungeerde  dook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans sg verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,verl,mv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omgingen  trouwden  dansten  stieten  weigerden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans pl verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,imper,zonder-subj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dans  Doe  komt  kijk  let</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans imperatief zonder pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,imper,met-subj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snuiten  Lacht  Zorgt  komt  Zorg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans imperatief met pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,intrans,conj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zij  inslape  Leve  diene  overdrijve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, intrans overige vormen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans .. XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbeeld  vertellen  melken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans </t>
-  </si>
-  <si>
-    <t xml:space="preserve">251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,tgw,1,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merk  benijd  haat  Zie  besef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans 1 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,tgw,2,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ziet  aanhebt  leert  kun  meent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans 2 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,tgw,3,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">betast  spuwt  afzondert  bejegent  afblaft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans 3 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,tgw,mv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verzaken  uithalen  aanbieden  maken  opslokken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans mv tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,verl,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aanhief  beschuldigde  verwachtte  duwde  stemde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans sg verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,verl,mv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hielden  voelden  grepen  zochten  vroegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans pl verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,imper,zonderpron)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schep  steun  Open  Help  Krijg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans imperatief zonder pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,imper,metpron)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behandelt  Excuseert  Begint  zie  geeft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans imperatief met pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,trans,conj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">controlere  raadplege  koste  scheide  behoede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, trans overige vormen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,tgw,1,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">herinner  zet  beroep  maak  vergis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl 1 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,tgw,2,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bemoei  inlaat  voel  houdt  verkleedt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl 2 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,tgw,3,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">over-vrijt  strekt  bevindt  handhaaft  loswoelt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl 3 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,tgw,mv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uiten  hoeden  stoten  bezighouden  beperken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl mv tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,verl,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">splitste  schrok  afgaf  redde  afspeelde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl sg verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,verl,mv) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bemoeiden  voelden  stelden  verlieten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl pl verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,imper,zonderpron)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beweeg  wacht  Verzet  vergis  vergist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl imperatief zonder pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,refl,imper,metpron)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, refl imperatief met pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kunnen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord </t>
-  </si>
-  <si>
-    <t xml:space="preserve">271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,1,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEB  zal  zit  laat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord 1 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,2,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag  houdt  Weet  Zul  Kunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord 2 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,3,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag  zijn  kon  tracht  dient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord 3 ev tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,mv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magge  doen  Zijn  behoren  Blijken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord mv tgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,verl,ev)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">achtte  Liet  hielp  Was  Moest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord sg verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,verl,mv)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zouden  HADDEN  sloegen  moesten  probeerden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord pl verl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,imper,zonderpron)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blijf  Blijf  Laat  Ga  zit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord imperatief zonder pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,imper,metpron)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begint  gaat  Gaat  Laat  Ga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord imperatief met pronomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WW(pv,hulp-of-koppel,conj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zij  ware  zijt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ww pv, hulp of koppelwerkwoord overige vormen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WW(pv,interj,imper,</t>
+      <t xml:space="preserve">WW(pv,e-interj,imper,e-</t>
     </r>
     <r>
       <rPr>
@@ -3357,7 +2795,7 @@
     <t xml:space="preserve">500</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(alg,zonder)</t>
+    <t xml:space="preserve">BW(e-alg,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">tenminste  overend  nog  eerst  plm.</t>
@@ -3369,7 +2807,7 @@
     <t xml:space="preserve">503</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(alg,met-e)</t>
+    <t xml:space="preserve">BW(e-alg,e-met-e)</t>
   </si>
   <si>
     <t xml:space="preserve">enenmale  dikke  hele</t>
@@ -3381,7 +2819,7 @@
     <t xml:space="preserve">504</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(alg,comp,zonder)</t>
+    <t xml:space="preserve">BW(e-alg,comp,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">dichter  dichterbij  vaker</t>
@@ -3393,7 +2831,7 @@
     <t xml:space="preserve">507</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(alg,sup,zonder)</t>
+    <t xml:space="preserve">BW(e-alg,sup,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">dichtst  vaakst</t>
@@ -3405,7 +2843,7 @@
     <t xml:space="preserve">509</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(alg,sup,met-e)</t>
+    <t xml:space="preserve">BW(e-alg,sup,e-met-e)</t>
   </si>
   <si>
     <t xml:space="preserve">zeerste</t>
@@ -3417,7 +2855,7 @@
     <t xml:space="preserve">510</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(aanw,zonder)</t>
+    <t xml:space="preserve">BW(e-aanw,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">soms  bovendien  zowiezo  ditmaal  zo</t>
@@ -3429,7 +2867,7 @@
     <t xml:space="preserve">513</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(aanw,versm)</t>
+    <t xml:space="preserve">BW(e-aanw,e-versm)</t>
   </si>
   <si>
     <t xml:space="preserve">zo'n</t>
@@ -3453,7 +2891,7 @@
     <t xml:space="preserve">519</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(aanw,sup,met-e-ofzo) [VW klopt niet]</t>
+    <t xml:space="preserve">BW(e-aanw,e-sup,e-met-e-ofzo) [VW klopt niet]</t>
   </si>
   <si>
     <t xml:space="preserve">Hier</t>
@@ -3465,7 +2903,7 @@
     <t xml:space="preserve">520</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(vrag,zonder)</t>
+    <t xml:space="preserve">BW(e-vrag,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">hoe  waarom  wanneer  waarzo</t>
@@ -3477,7 +2915,7 @@
     <t xml:space="preserve">523</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(vrag,met-e)</t>
+    <t xml:space="preserve">BW(e-vrag,e-met-e)</t>
   </si>
   <si>
     <t xml:space="preserve">hoeverre</t>
@@ -3489,7 +2927,7 @@
     <t xml:space="preserve">530</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(betr,zonder)</t>
+    <t xml:space="preserve">BW(e-betr,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">dat  waar  Waarom</t>
@@ -3501,7 +2939,7 @@
     <t xml:space="preserve">540</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(adv-pron,aanw,zonder)</t>
+    <t xml:space="preserve">BW(e-adv-pron,e-aanw,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">ertoe  hierboven  hieromtrent  Hierop  Daaroverheen</t>
@@ -3516,7 +2954,7 @@
     <t xml:space="preserve">550</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(adv-pron,vrag,zonder)</t>
+    <t xml:space="preserve">BW(e-adv-pron,e-vrag,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">waarover  waarna  Waaraan  waar  Waarmee</t>
@@ -3528,7 +2966,7 @@
     <t xml:space="preserve">560</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(adv-pron,betr,zonder)</t>
+    <t xml:space="preserve">BW(e-adv-pron,e-betr,e-zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">waarmee  Hiertoe  waarbij  Waarmede  waarlangs</t>
@@ -3552,7 +2990,7 @@
     <t xml:space="preserve">580</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(interj)</t>
+    <t xml:space="preserve">BW(e-interj)</t>
   </si>
   <si>
     <t xml:space="preserve">vooruit  nu  niet  Toe  wel</t>
@@ -3564,7 +3002,7 @@
     <t xml:space="preserve">587</t>
   </si>
   <si>
-    <t xml:space="preserve">BW(interj,sup) [ONZIN]</t>
+    <t xml:space="preserve">BW(e-interj,sup) [ONZIN]</t>
   </si>
   <si>
     <t xml:space="preserve">hoor</t>
@@ -3616,7 +3054,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VZ(fin,</t>
+      <t xml:space="preserve">VZ(fin,e-</t>
     </r>
     <r>
       <rPr>
@@ -3655,7 +3093,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VZ(fin,</t>
+      <t xml:space="preserve">VZ(fin,e-</t>
     </r>
     <r>
       <rPr>
@@ -3694,7 +3132,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VZ(fin,</t>
+      <t xml:space="preserve">VZ(fin,e-</t>
     </r>
     <r>
       <rPr>
@@ -3748,7 +3186,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VZ(init,</t>
+      <t xml:space="preserve">VZ(init,e-</t>
     </r>
     <r>
       <rPr>
@@ -3787,7 +3225,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VZ(init,</t>
+      <t xml:space="preserve">VZ(init,e-</t>
     </r>
     <r>
       <rPr>
@@ -3840,7 +3278,7 @@
     <t xml:space="preserve">720</t>
   </si>
   <si>
-    <t xml:space="preserve">VG(verg)</t>
+    <t xml:space="preserve">VG(onder,e-verg)</t>
   </si>
   <si>
     <t xml:space="preserve">als  dan  behalve  zoo</t>
@@ -3859,7 +3297,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VG(onder,</t>
+      <t xml:space="preserve">VG(onder,e-</t>
     </r>
     <r>
       <rPr>
@@ -3898,7 +3336,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VG(</t>
+      <t xml:space="preserve">VG(e-</t>
     </r>
     <r>
       <rPr>
@@ -3949,7 +3387,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">TSW(</t>
+      <t xml:space="preserve">TSW(e-</t>
     </r>
     <r>
       <rPr>
@@ -4000,7 +3438,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">TSW(</t>
+      <t xml:space="preserve">TSW(e-</t>
     </r>
     <r>
       <rPr>
@@ -4042,7 +3480,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SPEC(symb,</t>
+      <t xml:space="preserve">SPEC(symb,e-</t>
     </r>
     <r>
       <rPr>
@@ -4230,24 +3668,162 @@
     <t xml:space="preserve">WW(vd,trans,vrij)</t>
   </si>
   <si>
+    <t xml:space="preserve">WW(inf,refl,verbaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,refl,nominaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,refl,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,refl,met-e,zonder-n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,refl,met-e,mv-n)</t>
+  </si>
+  <si>
     <t xml:space="preserve">WW(od,refl,vrij)</t>
   </si>
   <si>
+    <t xml:space="preserve">WW(vd,refl,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,hulp-of-koppel,verbaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(inf,hulp-of-koppel,nominaal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,hulp-of-koppel,prenom|vrij,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(od,hulp-of-koppel,met-e,zonder-n)</t>
+  </si>
+  <si>
     <t xml:space="preserve">WW(od,hulp-of-koppel,met-e,mv-n)</t>
   </si>
   <si>
     <t xml:space="preserve">WW(od,hulp-of-koppel,vrij)</t>
   </si>
   <si>
+    <t xml:space="preserve">WW(vd,hulp-of-koppel,prenom|vrij,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(vd,hulp-of-koppel,met-e,zonder-n)</t>
+  </si>
+  <si>
     <t xml:space="preserve">WW(pv,intrans,??)</t>
   </si>
   <si>
+    <t xml:space="preserve">WW(pv,intrans,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,verl,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,verl,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,imper,zonder-subj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,imper,met-subj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,intrans,conj)</t>
+  </si>
+  <si>
     <t xml:space="preserve">WW(pv,trans</t>
   </si>
   <si>
+    <t xml:space="preserve">WW(pv,trans,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,verl,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,verl,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,imper,zonderpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,imper,metpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,trans,conj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,refl,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,refl,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,refl,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,refl,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,refl,verl,ev)</t>
+  </si>
+  <si>
     <t xml:space="preserve">WW(pv,refl,verl,mv)</t>
   </si>
   <si>
+    <t xml:space="preserve">WW(pv,refl,imper,zonderpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,refl,imper,metpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,1,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,2,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,3,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,tgw,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,verl,ev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,verl,mv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,imper,zonderpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,imper,metpron)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW(pv,hulp-of-koppel,conj)</t>
+  </si>
+  <si>
     <t xml:space="preserve">WW(pv,interj,imper,zonderpron)</t>
   </si>
   <si>
@@ -4281,12 +3857,54 @@
     <t xml:space="preserve">TW(hoofd,prenom,gen)</t>
   </si>
   <si>
+    <t xml:space="preserve">BW(alg,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(alg,met-e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(alg,comp,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(alg,sup,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(alg,sup,met-e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(aanw,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(aanw,versm)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BW(aanw,comp,zonder)</t>
   </si>
   <si>
     <t xml:space="preserve">BW(aanw,sup,met-e-ofzo)</t>
   </si>
   <si>
+    <t xml:space="preserve">BW(vrag,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(vrag,met-e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(betr,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(adv-pron,aanw,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(adv-pron,vrag,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(adv-pron,betr,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW(interj)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BW(interj,sup)</t>
   </si>
   <si>
@@ -4303,6 +3921,9 @@
   </si>
   <si>
     <t xml:space="preserve">VZ(init,preconj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG(verg)</t>
   </si>
   <si>
     <t xml:space="preserve">VG(onder,vso)</t>
@@ -4563,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4598,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="102.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -4618,7 +4239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -4635,7 +4256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -4652,7 +4273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -4740,7 +4361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -4757,7 +4378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
@@ -4791,7 +4412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -5120,7 +4741,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>128</v>
       </c>
@@ -5140,7 +4761,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -5157,7 +4778,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
         <v>137</v>
       </c>
@@ -5174,7 +4795,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>141</v>
       </c>
@@ -5191,7 +4812,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>145</v>
       </c>
@@ -5225,7 +4846,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>152</v>
       </c>
@@ -5242,7 +4863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
         <v>156</v>
       </c>
@@ -5262,7 +4883,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
@@ -5279,7 +4900,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>165</v>
       </c>
@@ -5597,7 +5218,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>241</v>
       </c>
@@ -5614,7 +5235,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>245</v>
       </c>
@@ -5631,7 +5252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
         <v>249</v>
       </c>
@@ -5648,7 +5269,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
         <v>253</v>
       </c>
@@ -5682,7 +5303,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
         <v>261</v>
       </c>
@@ -5699,7 +5320,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>265</v>
       </c>
@@ -5716,7 +5337,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
         <v>269</v>
       </c>
@@ -6195,7 +5816,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
         <v>382</v>
       </c>
@@ -6212,7 +5833,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
         <v>386</v>
       </c>
@@ -6229,7 +5850,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
         <v>390</v>
       </c>
@@ -6246,7 +5867,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
         <v>394</v>
       </c>
@@ -6263,7 +5884,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
         <v>398</v>
       </c>
@@ -6280,7 +5901,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
         <v>402</v>
       </c>
@@ -6297,7 +5918,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
         <v>406</v>
       </c>
@@ -6498,7 +6119,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
         <v>453</v>
       </c>
@@ -7608,7 +7229,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="s">
         <v>716</v>
       </c>
@@ -7693,7 +7314,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
         <v>736</v>
       </c>
@@ -7710,7 +7331,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
         <v>740</v>
       </c>
@@ -7747,7 +7368,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
         <v>748</v>
       </c>
@@ -7815,7 +7436,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
         <v>764</v>
       </c>
@@ -7835,7 +7456,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
         <v>769</v>
       </c>
@@ -7852,7 +7473,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
         <v>773</v>
       </c>
@@ -7971,7 +7592,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
         <v>800</v>
       </c>
@@ -7988,7 +7609,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
         <v>804</v>
       </c>
@@ -8042,7 +7663,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
         <v>817</v>
       </c>
@@ -8059,7 +7680,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
         <v>821</v>
       </c>
@@ -8113,7 +7734,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
         <v>832</v>
       </c>
@@ -8133,7 +7754,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
         <v>836</v>
       </c>
@@ -8153,7 +7774,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
         <v>840</v>
       </c>
@@ -8190,7 +7811,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
         <v>848</v>
       </c>
@@ -8224,7 +7845,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
         <v>856</v>
       </c>
@@ -8244,7 +7865,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
         <v>861</v>
       </c>
@@ -8313,7 +7934,7 @@
   </sheetPr>
   <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C212" activeCellId="0" sqref="C212"/>
     </sheetView>
   </sheetViews>
@@ -8956,7 +8577,7 @@
         <v>220</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>242</v>
+        <v>918</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>244</v>
@@ -8967,7 +8588,7 @@
         <v>221</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>246</v>
+        <v>919</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>248</v>
@@ -8978,7 +8599,7 @@
         <v>222</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>250</v>
+        <v>920</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>252</v>
@@ -8989,7 +8610,7 @@
         <v>223</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>254</v>
+        <v>921</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>256</v>
@@ -9000,7 +8621,7 @@
         <v>224</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>258</v>
+        <v>922</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>260</v>
@@ -9011,7 +8632,7 @@
         <v>225</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>264</v>
@@ -9022,7 +8643,7 @@
         <v>226</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>266</v>
+        <v>924</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>268</v>
@@ -9033,7 +8654,7 @@
         <v>230</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>270</v>
+        <v>925</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>272</v>
@@ -9044,7 +8665,7 @@
         <v>231</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>274</v>
+        <v>926</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>276</v>
@@ -9055,7 +8676,7 @@
         <v>232</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>278</v>
+        <v>927</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>280</v>
@@ -9066,7 +8687,7 @@
         <v>233</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>282</v>
+        <v>928</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>284</v>
@@ -9077,7 +8698,7 @@
         <v>234</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>288</v>
@@ -9088,7 +8709,7 @@
         <v>235</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>292</v>
@@ -9099,7 +8720,7 @@
         <v>236</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>294</v>
+        <v>931</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>296</v>
@@ -9110,7 +8731,7 @@
         <v>237</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>298</v>
+        <v>932</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>300</v>
@@ -9121,7 +8742,7 @@
         <v>240</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>304</v>
@@ -9132,7 +8753,7 @@
         <v>241</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>306</v>
+        <v>934</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>308</v>
@@ -9143,7 +8764,7 @@
         <v>242</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>310</v>
+        <v>935</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>312</v>
@@ -9154,7 +8775,7 @@
         <v>243</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>314</v>
+        <v>936</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>316</v>
@@ -9165,7 +8786,7 @@
         <v>244</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>319</v>
+        <v>937</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>321</v>
@@ -9176,7 +8797,7 @@
         <v>245</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>323</v>
+        <v>938</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>325</v>
@@ -9187,7 +8808,7 @@
         <v>246</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>327</v>
+        <v>939</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>329</v>
@@ -9198,7 +8819,7 @@
         <v>247</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>331</v>
+        <v>940</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>333</v>
@@ -9209,7 +8830,7 @@
         <v>248</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>335</v>
+        <v>941</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>337</v>
@@ -9220,7 +8841,7 @@
         <v>249</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>339</v>
+        <v>942</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>341</v>
@@ -9231,7 +8852,7 @@
         <v>250</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>345</v>
@@ -9242,7 +8863,7 @@
         <v>251</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>347</v>
+        <v>944</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>349</v>
@@ -9253,7 +8874,7 @@
         <v>252</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>351</v>
+        <v>945</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>353</v>
@@ -9264,7 +8885,7 @@
         <v>253</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>355</v>
+        <v>946</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>357</v>
@@ -9275,7 +8896,7 @@
         <v>254</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>359</v>
+        <v>947</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>361</v>
@@ -9286,7 +8907,7 @@
         <v>255</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>363</v>
+        <v>948</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>365</v>
@@ -9297,7 +8918,7 @@
         <v>256</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>367</v>
+        <v>949</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>369</v>
@@ -9308,7 +8929,7 @@
         <v>257</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>371</v>
+        <v>950</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>373</v>
@@ -9319,7 +8940,7 @@
         <v>258</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>375</v>
+        <v>951</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>377</v>
@@ -9330,7 +8951,7 @@
         <v>259</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>379</v>
+        <v>952</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>381</v>
@@ -9341,7 +8962,7 @@
         <v>261</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>383</v>
+        <v>953</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>385</v>
@@ -9352,7 +8973,7 @@
         <v>262</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>387</v>
+        <v>954</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>389</v>
@@ -9363,7 +8984,7 @@
         <v>263</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>391</v>
+        <v>955</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>393</v>
@@ -9374,7 +8995,7 @@
         <v>264</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>395</v>
+        <v>956</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>397</v>
@@ -9385,7 +9006,7 @@
         <v>265</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>399</v>
+        <v>957</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>401</v>
@@ -9396,7 +9017,7 @@
         <v>266</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>923</v>
+        <v>958</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>405</v>
@@ -9407,7 +9028,7 @@
         <v>267</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>407</v>
+        <v>959</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>409</v>
@@ -9418,7 +9039,7 @@
         <v>268</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>411</v>
+        <v>960</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>413</v>
@@ -9440,7 +9061,7 @@
         <v>271</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>418</v>
+        <v>961</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>420</v>
@@ -9451,7 +9072,7 @@
         <v>272</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>422</v>
+        <v>962</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>424</v>
@@ -9462,7 +9083,7 @@
         <v>273</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>426</v>
+        <v>963</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>428</v>
@@ -9473,7 +9094,7 @@
         <v>274</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>430</v>
+        <v>964</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>432</v>
@@ -9484,7 +9105,7 @@
         <v>275</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>434</v>
+        <v>965</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>436</v>
@@ -9495,7 +9116,7 @@
         <v>276</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>438</v>
+        <v>966</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>440</v>
@@ -9506,7 +9127,7 @@
         <v>277</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>442</v>
+        <v>967</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>444</v>
@@ -9517,7 +9138,7 @@
         <v>278</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>446</v>
+        <v>968</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>448</v>
@@ -9528,7 +9149,7 @@
         <v>279</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>450</v>
+        <v>969</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>452</v>
@@ -9539,7 +9160,7 @@
         <v>287</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>924</v>
+        <v>970</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>456</v>
@@ -9561,7 +9182,7 @@
         <v>302</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>925</v>
+        <v>971</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>465</v>
@@ -9583,7 +9204,7 @@
         <v>321</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>926</v>
+        <v>972</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>474</v>
@@ -9594,7 +9215,7 @@
         <v>323</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>927</v>
+        <v>973</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>478</v>
@@ -9660,7 +9281,7 @@
         <v>342</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>928</v>
+        <v>974</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>503</v>
@@ -9935,7 +9556,7 @@
         <v>442</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>929</v>
+        <v>975</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>605</v>
@@ -9957,7 +9578,7 @@
         <v>444</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>930</v>
+        <v>976</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>614</v>
@@ -9968,7 +9589,7 @@
         <v>446</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>931</v>
+        <v>977</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>619</v>
@@ -9979,7 +9600,7 @@
         <v>447</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>932</v>
+        <v>978</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>624</v>
@@ -9990,7 +9611,7 @@
         <v>449</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>933</v>
+        <v>979</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>629</v>
@@ -10144,7 +9765,7 @@
         <v>472</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>934</v>
+        <v>980</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>686</v>
@@ -10232,7 +9853,7 @@
         <v>500</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>717</v>
+        <v>981</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>719</v>
@@ -10243,7 +9864,7 @@
         <v>503</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>721</v>
+        <v>982</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>723</v>
@@ -10254,7 +9875,7 @@
         <v>504</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>725</v>
+        <v>983</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>727</v>
@@ -10265,7 +9886,7 @@
         <v>507</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>729</v>
+        <v>984</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>731</v>
@@ -10276,7 +9897,7 @@
         <v>509</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>733</v>
+        <v>985</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>735</v>
@@ -10287,7 +9908,7 @@
         <v>510</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>737</v>
+        <v>986</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>739</v>
@@ -10298,7 +9919,7 @@
         <v>513</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>741</v>
+        <v>987</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>743</v>
@@ -10309,7 +9930,7 @@
         <v>516</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>935</v>
+        <v>988</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>747</v>
@@ -10320,7 +9941,7 @@
         <v>519</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>936</v>
+        <v>989</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>751</v>
@@ -10331,7 +9952,7 @@
         <v>520</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>753</v>
+        <v>990</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>755</v>
@@ -10342,7 +9963,7 @@
         <v>523</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>757</v>
+        <v>991</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>759</v>
@@ -10353,7 +9974,7 @@
         <v>530</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>761</v>
+        <v>992</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>763</v>
@@ -10364,7 +9985,7 @@
         <v>540</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>765</v>
+        <v>993</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>767</v>
@@ -10375,7 +9996,7 @@
         <v>550</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>770</v>
+        <v>994</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>772</v>
@@ -10386,7 +10007,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>774</v>
+        <v>995</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>776</v>
@@ -10408,7 +10029,7 @@
         <v>580</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>782</v>
+        <v>996</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>784</v>
@@ -10419,7 +10040,7 @@
         <v>587</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>937</v>
+        <v>997</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>788</v>
@@ -10463,7 +10084,7 @@
         <v>610</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>803</v>
@@ -10474,7 +10095,7 @@
         <v>620</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>939</v>
+        <v>999</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>807</v>
@@ -10485,7 +10106,7 @@
         <v>630</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>811</v>
@@ -10507,7 +10128,7 @@
         <v>650</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>941</v>
+        <v>1001</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>820</v>
@@ -10518,7 +10139,7 @@
         <v>660</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>942</v>
+        <v>1002</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>820</v>
@@ -10551,7 +10172,7 @@
         <v>720</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>833</v>
+        <v>1003</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>828</v>
@@ -10562,7 +10183,7 @@
         <v>730</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>943</v>
+        <v>1004</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>828</v>
@@ -10573,7 +10194,7 @@
         <v>740</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>944</v>
+        <v>1005</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>828</v>
@@ -10584,7 +10205,7 @@
         <v>800</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>945</v>
+        <v>1006</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>847</v>
@@ -10595,7 +10216,7 @@
         <v>810</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>946</v>
+        <v>1007</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>851</v>
@@ -10617,7 +10238,7 @@
         <v>991</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>947</v>
+        <v>1008</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>859</v>
@@ -10628,7 +10249,7 @@
         <v>992</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>948</v>
+        <v>1009</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>864</v>

--- a/data/eindhoven_mapping.xlsx
+++ b/data/eindhoven_mapping.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1010">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">234</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(od,e-hulp-of-koppel,met-e,mv-n) ?? []</t>
+    <t xml:space="preserve">WW(od,e-hulp-of-koppel,met-e,mv-n)</t>
   </si>
   <si>
     <t xml:space="preserve">moeten</t>
@@ -1484,6 +1484,9 @@
     <t xml:space="preserve">ww hulp of koppelwerkwoord od, meervoud</t>
   </si>
   <si>
+    <t xml:space="preserve">TAGFOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">235</t>
   </si>
   <si>
@@ -1523,7 +1526,7 @@
     <t xml:space="preserve">240</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-intrans,??) zou niet moeten bestaan</t>
+    <t xml:space="preserve">WW(pv,e-intrans,??)</t>
   </si>
   <si>
     <t xml:space="preserve">stoppen  uitkomen  opgeven  steken</t>
@@ -1535,7 +1538,7 @@
     <t xml:space="preserve">241</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-intrans,tgw,1,ev)</t>
+    <t xml:space="preserve">WW(pv,e-intrans,tgw,e-1,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">kijk  staan  zing  snap  sla</t>
@@ -1547,7 +1550,7 @@
     <t xml:space="preserve">242</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-intrans,tgw,2,ev)</t>
+    <t xml:space="preserve">WW(pv,e-intrans,tgw,e-2,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">moet  leef  Rook  gelooft  vervalt</t>
@@ -1559,7 +1562,7 @@
     <t xml:space="preserve">243</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-intrans,tgw,3,ev)</t>
+    <t xml:space="preserve">WW(pv,e-intrans,tgw,e-3,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">groeit  zet  Rijst  kuurt  dient</t>
@@ -1610,7 +1613,7 @@
     <t xml:space="preserve">247</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-intrans,imper,zonder-subj)</t>
+    <t xml:space="preserve">WW(pv,e-intrans,imper,e-zonder-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">dans  Doe  komt  kijk  let</t>
@@ -1622,7 +1625,7 @@
     <t xml:space="preserve">248</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-intrans,imper,met-subj)</t>
+    <t xml:space="preserve">WW(pv,e-intrans,imper,e-met-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">Snuiten  Lacht  Zorgt  komt  Zorg</t>
@@ -1646,7 +1649,7 @@
     <t xml:space="preserve">250</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-trans .. XX</t>
+    <t xml:space="preserve">WW(pv,e-trans)</t>
   </si>
   <si>
     <t xml:space="preserve">verbeeld  vertellen  melken</t>
@@ -1658,7 +1661,7 @@
     <t xml:space="preserve">251</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-trans,tgw,1,ev)</t>
+    <t xml:space="preserve">WW(pv,e-trans,tgw,e-1,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">merk  benijd  haat  Zie  besef</t>
@@ -1670,7 +1673,7 @@
     <t xml:space="preserve">252</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-trans,tgw,2,ev)</t>
+    <t xml:space="preserve">WW(pv,e-trans,tgw,e-2,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">ziet  aanhebt  leert  kun  meent</t>
@@ -1682,7 +1685,7 @@
     <t xml:space="preserve">253</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-trans,tgw,3,ev)</t>
+    <t xml:space="preserve">WW(pv,e-trans,tgw,e-3,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">betast  spuwt  afzondert  bejegent  afblaft</t>
@@ -1730,7 +1733,7 @@
     <t xml:space="preserve">257</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-trans,imper,zonderpron)</t>
+    <t xml:space="preserve">WW(pv,e-trans,imper,e-zonder-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">schep  steun  Open  Help  Krijg</t>
@@ -1742,7 +1745,7 @@
     <t xml:space="preserve">258</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-trans,imper,metpron)</t>
+    <t xml:space="preserve">WW(pv,e-trans,imper,e-met-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">Behandelt  Excuseert  Begint  zie  geeft</t>
@@ -1766,7 +1769,7 @@
     <t xml:space="preserve">261</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-refl,tgw,1,ev)</t>
+    <t xml:space="preserve">WW(pv,e-refl,tgw,e-1,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">herinner  zet  beroep  maak  vergis</t>
@@ -1778,7 +1781,7 @@
     <t xml:space="preserve">262</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-refl,tgw,2,ev)</t>
+    <t xml:space="preserve">WW(pv,e-refl,tgw,e-2,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">bemoei  inlaat  voel  houdt  verkleedt</t>
@@ -1790,7 +1793,7 @@
     <t xml:space="preserve">263</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-refl,tgw,3,ev)</t>
+    <t xml:space="preserve">WW(pv,e-refl,tgw,e-3,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">over-vrijt  strekt  bevindt  handhaaft  loswoelt</t>
@@ -1838,7 +1841,7 @@
     <t xml:space="preserve">267</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-refl,imper,e-zonderpron)</t>
+    <t xml:space="preserve">WW(pv,e-refl,imper,e-zonder-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">Beweeg  wacht  Verzet  vergis  vergist</t>
@@ -1850,7 +1853,7 @@
     <t xml:space="preserve">268</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-refl,imper,e-metpron)</t>
+    <t xml:space="preserve">WW(pv,e-refl,imper,e-met-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">Hou</t>
@@ -1871,7 +1874,7 @@
     <t xml:space="preserve">271</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,1,ev)</t>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,e-1,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">HEB  zal  zit  laat</t>
@@ -1883,7 +1886,7 @@
     <t xml:space="preserve">272</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,2,ev)</t>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,e-2,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">mag  houdt  Weet  Zul  Kunt</t>
@@ -1895,7 +1898,7 @@
     <t xml:space="preserve">273</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,3,ev)</t>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,tgw,e-3,ev)</t>
   </si>
   <si>
     <t xml:space="preserve">mag  zijn  kon  tracht  dient</t>
@@ -1943,7 +1946,7 @@
     <t xml:space="preserve">277</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,imper,zonderpron)</t>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,imper,e-zonder-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">blijf  Blijf  Laat  Ga  zit</t>
@@ -1955,7 +1958,7 @@
     <t xml:space="preserve">278</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,imper,metpron)</t>
+    <t xml:space="preserve">WW(pv,e-hulp-of-koppel,imper,e-met-subj)</t>
   </si>
   <si>
     <t xml:space="preserve">Begint  gaat  Gaat  Laat  Ga</t>
@@ -1996,7 +1999,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">zonderpron</t>
+      <t xml:space="preserve">zonder-subj</t>
     </r>
     <r>
       <rPr>
@@ -2495,7 +2498,7 @@
     <t xml:space="preserve">446</t>
   </si>
   <si>
-    <t xml:space="preserve">VNW(onbep,grad,stan,vrij,met-e,comp) ??</t>
+    <t xml:space="preserve">VNW(onbep,grad,stan,vrij,met-e,comp)</t>
   </si>
   <si>
     <t xml:space="preserve">meerdere  meerderen  minderen  mindere</t>
@@ -2696,7 +2699,7 @@
     <t xml:space="preserve">472</t>
   </si>
   <si>
-    <t xml:space="preserve">TW(hoofd,prenom,gen) [KLOPT NIET]</t>
+    <t xml:space="preserve">TW(hoofd,prenom,gen) </t>
   </si>
   <si>
     <t xml:space="preserve">duizenden</t>
@@ -3843,9 +3846,6 @@
   </si>
   <si>
     <t xml:space="preserve">VNW(onbep,grad,stan,vrij,zonder,comp)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNW(onbep,grad,stan,vrij,met-e,comp)</t>
   </si>
   <si>
     <t xml:space="preserve">VNW(onbep,grad,stan,vrij,zonder,sup)</t>
@@ -4184,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5405,7 +5405,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
         <v>285</v>
       </c>
@@ -5421,1931 +5421,1943 @@
       <c r="E70" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="F70" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>35</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>181</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>195</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1002</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>612</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1010</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>430</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>109</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>280</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>365</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1190</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>717</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>1159</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>428</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>208</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>23</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>164</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>109</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>132</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>59</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>73</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>131</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>152</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>107</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>134</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>88</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>84</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>65</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>54</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>75</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>29</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>37</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>59</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>33</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>35</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>108</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>33</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>29</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>147</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>74</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>852</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>21</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>1214</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>39</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>102</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>1945</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>247</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>37</v>
@@ -7353,567 +7365,567 @@
     </row>
     <row r="182" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>46</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>27</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>239</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>37</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>59</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C191" s="2" t="n">
         <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C192" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C193" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>432</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C195" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C196" s="2" t="n">
         <v>29</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C198" s="2" t="n">
         <v>146</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C199" s="2" t="n">
         <v>32</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C200" s="2" t="n">
         <v>24</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C202" s="2" t="n">
         <v>98</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C203" s="2" t="n">
         <v>139</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C204" s="2" t="n">
         <v>59</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C205" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C206" s="2" t="n">
         <v>49</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C207" s="2" t="n">
         <v>291</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C208" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C209" s="2" t="n">
         <v>846</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C210" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C211" s="2" t="n">
         <v>31</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C212" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C213" s="2" t="n">
         <v>75</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -7950,10 +7962,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,10 +7984,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7983,10 +7995,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,7 +8050,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>43</v>
@@ -8049,7 +8061,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>47</v>
@@ -8071,7 +8083,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>54</v>
@@ -8104,7 +8116,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>66</v>
@@ -8115,7 +8127,7 @@
         <v>102</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>71</v>
@@ -8126,7 +8138,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>75</v>
@@ -8137,7 +8149,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>79</v>
@@ -8148,7 +8160,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>83</v>
@@ -8159,7 +8171,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>87</v>
@@ -8170,7 +8182,7 @@
         <v>107</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>91</v>
@@ -8181,7 +8193,7 @@
         <v>109</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>95</v>
@@ -8280,7 +8292,7 @@
         <v>150</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>131</v>
@@ -8291,7 +8303,7 @@
         <v>153</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>136</v>
@@ -8302,7 +8314,7 @@
         <v>154</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>140</v>
@@ -8313,7 +8325,7 @@
         <v>157</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>144</v>
@@ -8324,7 +8336,7 @@
         <v>159</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>148</v>
@@ -8346,7 +8358,7 @@
         <v>180</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>155</v>
@@ -8357,7 +8369,7 @@
         <v>200</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>159</v>
@@ -8368,7 +8380,7 @@
         <v>201</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>164</v>
@@ -8379,7 +8391,7 @@
         <v>202</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>168</v>
@@ -8390,7 +8402,7 @@
         <v>203</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>172</v>
@@ -8401,7 +8413,7 @@
         <v>204</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>177</v>
@@ -8412,7 +8424,7 @@
         <v>205</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>181</v>
@@ -8423,7 +8435,7 @@
         <v>206</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>186</v>
@@ -8434,7 +8446,7 @@
         <v>207</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>191</v>
@@ -8445,7 +8457,7 @@
         <v>208</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>196</v>
@@ -8456,7 +8468,7 @@
         <v>209</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>200</v>
@@ -8467,7 +8479,7 @@
         <v>210</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>204</v>
@@ -8478,7 +8490,7 @@
         <v>211</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>208</v>
@@ -8489,7 +8501,7 @@
         <v>212</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>212</v>
@@ -8500,7 +8512,7 @@
         <v>213</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>216</v>
@@ -8511,7 +8523,7 @@
         <v>214</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>220</v>
@@ -8522,7 +8534,7 @@
         <v>215</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>224</v>
@@ -8533,7 +8545,7 @@
         <v>216</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>228</v>
@@ -8544,7 +8556,7 @@
         <v>217</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>232</v>
@@ -8555,7 +8567,7 @@
         <v>218</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>236</v>
@@ -8566,7 +8578,7 @@
         <v>219</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>240</v>
@@ -8577,7 +8589,7 @@
         <v>220</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>244</v>
@@ -8588,7 +8600,7 @@
         <v>221</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>248</v>
@@ -8599,7 +8611,7 @@
         <v>222</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>252</v>
@@ -8610,7 +8622,7 @@
         <v>223</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>256</v>
@@ -8621,7 +8633,7 @@
         <v>224</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>260</v>
@@ -8632,7 +8644,7 @@
         <v>225</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>264</v>
@@ -8643,7 +8655,7 @@
         <v>226</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>268</v>
@@ -8654,7 +8666,7 @@
         <v>230</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>272</v>
@@ -8665,7 +8677,7 @@
         <v>231</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>276</v>
@@ -8676,7 +8688,7 @@
         <v>232</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>280</v>
@@ -8687,7 +8699,7 @@
         <v>233</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>284</v>
@@ -8698,7 +8710,7 @@
         <v>234</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>288</v>
@@ -8709,10 +8721,10 @@
         <v>235</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,10 +8732,10 @@
         <v>236</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,10 +8743,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8742,10 +8754,10 @@
         <v>240</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,10 +8765,10 @@
         <v>241</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,10 +8776,10 @@
         <v>242</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,10 +8787,10 @@
         <v>243</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,10 +8798,10 @@
         <v>244</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8797,10 +8809,10 @@
         <v>245</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8808,10 +8820,10 @@
         <v>246</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8819,10 +8831,10 @@
         <v>247</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8830,10 +8842,10 @@
         <v>248</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,10 +8853,10 @@
         <v>249</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8852,10 +8864,10 @@
         <v>250</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8863,10 +8875,10 @@
         <v>251</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,10 +8886,10 @@
         <v>252</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8885,10 +8897,10 @@
         <v>253</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8896,10 +8908,10 @@
         <v>254</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,10 +8919,10 @@
         <v>255</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8918,10 +8930,10 @@
         <v>256</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,10 +8941,10 @@
         <v>257</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,10 +8952,10 @@
         <v>258</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,10 +8963,10 @@
         <v>259</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,10 +8974,10 @@
         <v>261</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8973,10 +8985,10 @@
         <v>262</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,10 +8996,10 @@
         <v>263</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8995,10 +9007,10 @@
         <v>264</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,10 +9018,10 @@
         <v>265</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9017,10 +9029,10 @@
         <v>266</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9028,10 +9040,10 @@
         <v>267</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,10 +9051,10 @@
         <v>268</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9053,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9061,10 +9073,10 @@
         <v>271</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,10 +9084,10 @@
         <v>272</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9083,10 +9095,10 @@
         <v>273</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,10 +9106,10 @@
         <v>274</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9105,10 +9117,10 @@
         <v>275</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9116,10 +9128,10 @@
         <v>276</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,10 +9139,10 @@
         <v>277</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,10 +9150,10 @@
         <v>278</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9149,10 +9161,10 @@
         <v>279</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9160,10 +9172,10 @@
         <v>287</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9171,10 +9183,10 @@
         <v>300</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9182,10 +9194,10 @@
         <v>302</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9193,10 +9205,10 @@
         <v>303</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9204,10 +9216,10 @@
         <v>321</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9215,10 +9227,10 @@
         <v>323</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9226,10 +9238,10 @@
         <v>330</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,10 +9249,10 @@
         <v>332</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9248,10 +9260,10 @@
         <v>333</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9259,10 +9271,10 @@
         <v>337</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,10 +9282,10 @@
         <v>340</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9281,10 +9293,10 @@
         <v>342</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9292,10 +9304,10 @@
         <v>343</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,10 +9315,10 @@
         <v>350</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9314,10 +9326,10 @@
         <v>352</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9325,10 +9337,10 @@
         <v>353</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9336,10 +9348,10 @@
         <v>360</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,10 +9359,10 @@
         <v>361</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,10 +9370,10 @@
         <v>362</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9369,10 +9381,10 @@
         <v>363</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9380,10 +9392,10 @@
         <v>370</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,10 +9403,10 @@
         <v>372</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9402,10 +9414,10 @@
         <v>373</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,10 +9425,10 @@
         <v>380</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9424,10 +9436,10 @@
         <v>400</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9435,10 +9447,10 @@
         <v>402</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9446,10 +9458,10 @@
         <v>403</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9457,10 +9469,10 @@
         <v>410</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9468,10 +9480,10 @@
         <v>413</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9479,10 +9491,10 @@
         <v>420</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9490,10 +9502,10 @@
         <v>422</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,10 +9513,10 @@
         <v>423</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9512,10 +9524,10 @@
         <v>430</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9523,10 +9535,10 @@
         <v>433</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9534,10 +9546,10 @@
         <v>440</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9545,10 +9557,10 @@
         <v>441</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9556,10 +9568,10 @@
         <v>442</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,10 +9579,10 @@
         <v>443</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9578,10 +9590,10 @@
         <v>444</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,10 +9601,10 @@
         <v>446</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>977</v>
+        <v>618</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9603,7 +9615,7 @@
         <v>978</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9614,7 +9626,7 @@
         <v>979</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9622,10 +9634,10 @@
         <v>450</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9633,10 +9645,10 @@
         <v>451</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9644,10 +9656,10 @@
         <v>452</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9655,10 +9667,10 @@
         <v>453</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9666,10 +9678,10 @@
         <v>454</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9677,10 +9689,10 @@
         <v>456</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9688,10 +9700,10 @@
         <v>457</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9699,10 +9711,10 @@
         <v>459</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,10 +9722,10 @@
         <v>460</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9721,10 +9733,10 @@
         <v>461</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,10 +9744,10 @@
         <v>463</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9743,10 +9755,10 @@
         <v>470</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9754,10 +9766,10 @@
         <v>471</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9768,7 +9780,7 @@
         <v>980</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,10 +9788,10 @@
         <v>473</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,10 +9799,10 @@
         <v>480</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9798,10 +9810,10 @@
         <v>481</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9809,10 +9821,10 @@
         <v>483</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9820,10 +9832,10 @@
         <v>490</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9831,10 +9843,10 @@
         <v>491</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9842,10 +9854,10 @@
         <v>493</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9856,7 +9868,7 @@
         <v>981</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,7 +9879,7 @@
         <v>982</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9878,7 +9890,7 @@
         <v>983</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9889,7 +9901,7 @@
         <v>984</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9900,7 +9912,7 @@
         <v>985</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9911,7 +9923,7 @@
         <v>986</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9922,7 +9934,7 @@
         <v>987</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9933,7 +9945,7 @@
         <v>988</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9944,7 +9956,7 @@
         <v>989</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9955,7 +9967,7 @@
         <v>990</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9966,7 +9978,7 @@
         <v>991</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9977,7 +9989,7 @@
         <v>992</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9988,7 +10000,7 @@
         <v>993</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9999,7 +10011,7 @@
         <v>994</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10010,7 +10022,7 @@
         <v>995</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10018,10 +10030,10 @@
         <v>566</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10032,7 +10044,7 @@
         <v>996</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10043,7 +10055,7 @@
         <v>997</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10051,10 +10063,10 @@
         <v>590</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10062,10 +10074,10 @@
         <v>600</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10073,10 +10085,10 @@
         <v>603</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10087,7 +10099,7 @@
         <v>998</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10098,7 +10110,7 @@
         <v>999</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10109,7 +10121,7 @@
         <v>1000</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,10 +10129,10 @@
         <v>640</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10131,7 +10143,7 @@
         <v>1001</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10142,7 +10154,7 @@
         <v>1002</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10150,10 +10162,10 @@
         <v>700</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,10 +10173,10 @@
         <v>710</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10175,7 +10187,7 @@
         <v>1003</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,7 +10198,7 @@
         <v>1004</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10197,7 +10209,7 @@
         <v>1005</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,7 +10220,7 @@
         <v>1006</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10219,7 +10231,7 @@
         <v>1007</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,10 +10239,10 @@
         <v>990</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10241,7 +10253,7 @@
         <v>1008</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10252,7 +10264,7 @@
         <v>1009</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,10 +10272,10 @@
         <v>993</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10271,10 +10283,10 @@
         <v>998</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/data/eindhoven_mapping.xlsx
+++ b/data/eindhoven_mapping.xlsx
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">220</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(inf,e-refl,verbaal)</t>
+    <t xml:space="preserve">WW(inf,e-refl,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">bemoeien  handhaven  werken  verbinden  voorbereiden</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">221</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(inf,e-refl,nominaal)</t>
+    <t xml:space="preserve">WW(inf,e-refl,nom)</t>
   </si>
   <si>
     <t xml:space="preserve">openstellen  overgeven  verenigen  voordoen  houden</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">230</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(inf,e-hulp-of-koppel,verbaal)</t>
+    <t xml:space="preserve">WW(inf,e-hulp-of-koppel,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">raken  lezen  staan  proberen  moeten</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">231</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(inf,e-hulp-of-koppel,nominaal)</t>
+    <t xml:space="preserve">WW(inf,e-hulp-of-koppel,nom)</t>
   </si>
   <si>
     <t xml:space="preserve">worden  blijven  zijn  houden</t>
@@ -4184,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5354,7 +5354,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
         <v>273</v>
       </c>

--- a/data/eindhoven_mapping.xlsx
+++ b/data/eindhoven_mapping.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1012">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -404,6 +404,45 @@
     <t xml:space="preserve">100</t>
   </si>
   <si>
+    <t xml:space="preserve">ADJ(prenom|e-pred,basis,zonder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soeverein  glazen  prominent  breed  fiks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw gewoon (predicatief of attributief) basisvorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Gewoon” lijkt te staan voor attributief of predicatief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJ(postnom,basis,met-s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stelligs  extra's  ruziezoekerigs  moois  blijmoedigs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw gewoon (predicatief of attributief) genitief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJ(prenom,basis,met-e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bekakte  conventionele  Leeuwardense  journalistieke  oorspronkelijke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw gewoon (predicatief of attributief) overige buiging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -415,13 +454,11 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">gewoon</t>
+      <t xml:space="preserve">prenom|e-pred</t>
     </r>
     <r>
       <rPr>
@@ -430,44 +467,41 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,basis,zonder)</t>
+      <t xml:space="preserve">,comp,zonder)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">soeverein  glazen  prominent  breed  fiks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw gewoon (predicatief of attributief) basisvorm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Gewoon” lijkt te staan voor attributief of predicatief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJ(postnom,basis,met-s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stelligs  extra's  ruziezoekerigs  moois  blijmoedigs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw gewoon (predicatief of attributief) genitief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJ(prenom,basis,met-e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bekakte  conventionele  Leeuwardense  journalistieke  oorspronkelijke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw gewoon (predicatief of attributief) overige buiging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
+    <t xml:space="preserve">zuiniger  voordeliger  dikker  onhandelbaarder  langzamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw gewoon (predicatief of attributief) comparatief onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJ(postnom,comp,met-s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pittigers  ondergeschikt  zinnigers  beters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw gewoon (predicatief of attributief) comparatief genitief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJ(prenom,comp,met-e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vroegere  bredere  bewustere  snellere  Oudere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw gewoon (predicatief of attributief) comparatief overige buiging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
   </si>
   <si>
     <r>
@@ -481,13 +515,11 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">gewoon</t>
+      <t xml:space="preserve">prenom|e-pred</t>
     </r>
     <r>
       <rPr>
@@ -496,41 +528,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,comp,zonder)</t>
+      <t xml:space="preserve">,sup,zonder)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">zuiniger  voordeliger  dikker  onhandelbaarder  langzamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw gewoon (predicatief of attributief) comparatief onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJ(postnom,comp,met-s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pittigers  ondergeschikt  zinnigers  beters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw gewoon (predicatief of attributief) comparatief genitief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJ(prenom,comp,met-e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vroegere  bredere  bewustere  snellere  Oudere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw gewoon (predicatief of attributief) comparatief overige buiging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
+    <t xml:space="preserve">vreemdst  mooist  kleinst  prettigst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnw gewoon (predicatief of attributief) superlatief onverbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
   </si>
   <si>
     <r>
@@ -544,52 +552,11 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">gewoon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,sup,zonder)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">vreemdst  mooist  kleinst  prettigst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bnw gewoon (predicatief of attributief) superlatief onverbogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ADJ(</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">gewoon</t>
+      <t xml:space="preserve">prenom|e-pred</t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1067,7 @@
     <t xml:space="preserve">205</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(od,e-intrans,adv,vrij)</t>
+    <t xml:space="preserve">WW(od,e-intrans,e-adv,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">verflauwende  Samenvattend  Uitgaande  schrijvend  peinzend</t>
@@ -1184,7 +1151,7 @@
     <t xml:space="preserve">209</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(vd,e-intrans,adv,vrij)</t>
+    <t xml:space="preserve">WW(vd,e-intrans,e-adv,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">veronachtzaamd  Geschrokken  beschouwd  verantwoord  onderuitgezakt</t>
@@ -1256,7 +1223,7 @@
     <t xml:space="preserve">215</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(od,e-trans,adv,vrij)</t>
+    <t xml:space="preserve">WW(od,e-trans,e-adv,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">puttend  ontnemend  verzwelgend  betreffende  taxerend</t>
@@ -1304,7 +1271,7 @@
     <t xml:space="preserve">219</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(vd,e-trans,adv,vrij)</t>
+    <t xml:space="preserve">WW(vd,e-trans,e-adv,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">geanimeerd  overdonderd  gekruist  beperkt  Lamgeslagen</t>
@@ -1383,7 +1350,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WW(od,e-refl,</t>
+      <t xml:space="preserve">WW(od,e-refl,e-</t>
     </r>
     <r>
       <rPr>
@@ -1490,7 +1457,7 @@
     <t xml:space="preserve">235</t>
   </si>
   <si>
-    <t xml:space="preserve">WW(od,e-hulp-of-koppel,adv,vrij)</t>
+    <t xml:space="preserve">WW(od,e-hulp-of-koppel,e-adv,vrij)</t>
   </si>
   <si>
     <t xml:space="preserve">zijnde  wordend  trachtend</t>
@@ -2399,7 +2366,7 @@
     <t xml:space="preserve">423</t>
   </si>
   <si>
-    <t xml:space="preserve">VNW(betr,pron,overig-of-e)</t>
+    <t xml:space="preserve">VNW(betr,pron,met-e|met-n)</t>
   </si>
   <si>
     <t xml:space="preserve">welke  dien</t>
@@ -2747,7 +2714,7 @@
     <t xml:space="preserve">483</t>
   </si>
   <si>
-    <t xml:space="preserve">TW(rang,nom,overig-of-e)</t>
+    <t xml:space="preserve">TW(rang,nom,met-e)</t>
   </si>
   <si>
     <t xml:space="preserve">eersten  eerste  Eerste  tweede</t>
@@ -3842,6 +3809,9 @@
     <t xml:space="preserve">VNW(refl|pr|recip,pron,gen)</t>
   </si>
   <si>
+    <t xml:space="preserve">VNW(betr,pron,overig-of-e)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VNW(onbep,det,gen,nom)</t>
   </si>
   <si>
@@ -3855,6 +3825,9 @@
   </si>
   <si>
     <t xml:space="preserve">TW(hoofd,prenom,gen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TW(rang,nom,overig-of-e)</t>
   </si>
   <si>
     <t xml:space="preserve">BW(alg,zonder)</t>
@@ -3952,7 +3925,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4007,6 +3980,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4184,8 +4162,8 @@
   </sheetPr>
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4466,7 +4444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
@@ -4571,7 +4549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>88</v>
       </c>
@@ -4588,7 +4566,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
@@ -4954,7 +4932,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>178</v>
       </c>
@@ -5031,7 +5009,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
         <v>197</v>
       </c>
@@ -5133,7 +5111,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
         <v>221</v>
       </c>
@@ -5201,7 +5179,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>237</v>
       </c>
@@ -5425,7 +5403,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
         <v>290</v>
       </c>
@@ -6676,7 +6654,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
         <v>584</v>
       </c>
@@ -6691,6 +6669,9 @@
       </c>
       <c r="E143" s="3" t="s">
         <v>587</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7185,6 +7166,9 @@
       </c>
       <c r="E171" s="3" t="s">
         <v>703</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9513,7 +9497,7 @@
         <v>423</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>585</v>
+        <v>976</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>587</v>
@@ -9568,7 +9552,7 @@
         <v>442</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>606</v>
@@ -9590,7 +9574,7 @@
         <v>444</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>615</v>
@@ -9612,7 +9596,7 @@
         <v>447</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>625</v>
@@ -9623,7 +9607,7 @@
         <v>449</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>630</v>
@@ -9777,7 +9761,7 @@
         <v>472</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>687</v>
@@ -9821,7 +9805,7 @@
         <v>483</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>701</v>
+        <v>982</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>703</v>
@@ -9865,7 +9849,7 @@
         <v>500</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>720</v>
@@ -9876,7 +9860,7 @@
         <v>503</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>724</v>
@@ -9887,7 +9871,7 @@
         <v>504</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>728</v>
@@ -9898,7 +9882,7 @@
         <v>507</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>732</v>
@@ -9909,7 +9893,7 @@
         <v>509</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>736</v>
@@ -9920,7 +9904,7 @@
         <v>510</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>740</v>
@@ -9931,7 +9915,7 @@
         <v>513</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>744</v>
@@ -9942,7 +9926,7 @@
         <v>516</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>748</v>
@@ -9953,7 +9937,7 @@
         <v>519</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>752</v>
@@ -9964,7 +9948,7 @@
         <v>520</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>756</v>
@@ -9975,7 +9959,7 @@
         <v>523</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>760</v>
@@ -9986,7 +9970,7 @@
         <v>530</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>764</v>
@@ -9997,7 +9981,7 @@
         <v>540</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>768</v>
@@ -10008,7 +9992,7 @@
         <v>550</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>773</v>
@@ -10019,7 +10003,7 @@
         <v>560</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>777</v>
@@ -10041,7 +10025,7 @@
         <v>580</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>785</v>
@@ -10052,7 +10036,7 @@
         <v>587</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>789</v>
@@ -10096,7 +10080,7 @@
         <v>610</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>804</v>
@@ -10107,7 +10091,7 @@
         <v>620</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>808</v>
@@ -10118,7 +10102,7 @@
         <v>630</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>812</v>
@@ -10140,7 +10124,7 @@
         <v>650</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>821</v>
@@ -10151,7 +10135,7 @@
         <v>660</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>821</v>
@@ -10184,7 +10168,7 @@
         <v>720</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>829</v>
@@ -10195,7 +10179,7 @@
         <v>730</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>829</v>
@@ -10206,7 +10190,7 @@
         <v>740</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>829</v>
@@ -10217,7 +10201,7 @@
         <v>800</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>848</v>
@@ -10228,7 +10212,7 @@
         <v>810</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>852</v>
@@ -10250,7 +10234,7 @@
         <v>991</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>860</v>
@@ -10261,7 +10245,7 @@
         <v>992</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>865</v>
